--- a/src/test/resources/testdata/Book1.xlsx
+++ b/src/test/resources/testdata/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beril/Documents/cucumberproject/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821F027B-7FD6-3446-98B1-6BEC1A5E1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991FC874-AA5F-3A44-B990-2EF98BAB5AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2680" windowWidth="28040" windowHeight="16740" xr2:uid="{6507B9BA-6AEF-DC4C-9CFF-D812477B4E26}"/>
+    <workbookView xWindow="3460" yWindow="3220" windowWidth="28040" windowHeight="16740" xr2:uid="{6507B9BA-6AEF-DC4C-9CFF-D812477B4E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,23 +43,23 @@
     <t>john@gmail.com</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
     <t>herry@gmail.com</t>
   </si>
   <si>
-    <t>gh45865</t>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1245865 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +72,14 @@
       <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,15 +99,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,7 +427,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -425,10 +437,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -440,10 +452,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/testdata/Book1.xlsx
+++ b/src/test/resources/testdata/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beril/Documents/cucumberproject/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991FC874-AA5F-3A44-B990-2EF98BAB5AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1271322-872C-5D46-BE21-C86F2E485434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="3220" windowWidth="28040" windowHeight="16740" xr2:uid="{6507B9BA-6AEF-DC4C-9CFF-D812477B4E26}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>john1234</t>
   </si>
@@ -49,10 +49,13 @@
     <t>herry@gmail.com</t>
   </si>
   <si>
+    <t>4566@gmail.com</t>
+  </si>
+  <si>
+    <t>hrl4555</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1245865 </t>
   </si>
 </sst>
 </file>
@@ -107,8 +110,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D5287-7842-4E4D-9862-B8012880E656}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -437,7 +440,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -452,10 +455,18 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4">
+        <v>1245865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
